--- a/pred_ohlcv/54_21/2020-01-19 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 OMG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4652.129</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-4616.3489</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-4732.0401</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1702.1481</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1700.5904</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1900.6062</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>937.4353999999998</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-378.9957000000002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-378.9957000000002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-377.9957000000002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-405.5108000000002</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-404.5108000000002</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-157.1468000000002</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-226.5625000000002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1318.9594</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1322.9594</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1323.9594</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2271.407</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2270.407</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>522.607</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>547.607</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-3626.4972</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3623.9972</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4096.9073</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-7366.5044</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-7305.5044</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-7309.263</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-7341.1977</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-7247.6977</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-7147.94704736842</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-7219.94704736842</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-7200.789847368421</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-7138.673047368421</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-7141.594447368421</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-12589.17814736842</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-12589.17814736842</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-13132.15814736842</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-9944.967947368423</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-6896.467947368423</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-6896.467947368423</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-15093.75534736842</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-15569.64054736842</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-15125.37984736842</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-16194.67474736842</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-16231.47474736842</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-16192.95504736842</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-16146.65514736842</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-16150.74154736842</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-13447.43508765046</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-14532.02448765046</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-13324.09558765046</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-12031.03398765046</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-11082.20058765046</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-16513.34418765046</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-15716.28658765046</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-14495.09448376218</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-15392.79378376218</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-16528.95978376218</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-16228.95978376218</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-16589.95978376218</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-16152.67838376218</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-16975.29788376218</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-18154.29788376218</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-18754.29788376218</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-20249.98788376218</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-20549.98788376218</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-22723.95608376218</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-12231.32618376218</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-12231.32618376218</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-13718.08818376218</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-13716.16648376218</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-19445.84347855176</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-14133.44227855176</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-14133.44227855176</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-13416.89767855176</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-12964.39377855176</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-12964.39377855176</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-10371.76679944729</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-10371.76679944729</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-16076.80519944729</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-15238.15819944729</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-17608.31209984372</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-20738.42099984372</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-20823.96259984372</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-20823.96259984372</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-22036.64139984372</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-21968.37829984372</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-23692.12719984372</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-17169.93699984372</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-17139.83699984372</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-14592.12059984372</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-14592.12059984372</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-15100.85589984372</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-13451.57539984372</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-13627.79179984372</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-14482.24289984372</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-16812.24909984372</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-21223.30189984372</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-29992.84349984372</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-30434.77899984372</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-31341.55199984372</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-29361.67919984372</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-29068.33329984372</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-27426.66139984372</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-28853.36759984372</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-27766.21179984372</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-20107.94092094825</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-20107.94092094825</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-20731.41082094825</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-20731.41082094825</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-21258.51832094825</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-19642.31052094825</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-19804.50992094825</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-19689.69932094825</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-18781.11262094825</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-17186.87792094825</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-17649.42862094825</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-17649.42862094825</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-18776.49672094825</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-18784.59672094825</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-19145.76382094825</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-19145.76382094825</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-19135.21542094825</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-20854.53452094825</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-22006.14172094825</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-22193.83542094825</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-35154.6316403262</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-35154.6316403262</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-35150.5919403262</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-35477.87964032619</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-35478.87964032619</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-35479.87964032619</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-35357.7222403262</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-35357.7222403262</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-35414.7222403262</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-35764.8443403262</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-36742.7367403262</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-36910.9304403262</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-39396.5240403262</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-39396.5240403262</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-4833.522840326199</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-6061.848340326199</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-5639.891040326199</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-5644.515040326199</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-5080.868740326199</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-6871.321640326199</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-9114.058540326199</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-6531.053740326199</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-11693.5653403262</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-13259.2554403262</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-29441.2004403262</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-30144.53674032619</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-28565.45164032619</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-28565.45164032619</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-28558.65164032619</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-28511.21454032619</v>
       </c>
       <c r="H385">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-28511.21454032619</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-28623.05804032619</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-32553.27644032619</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-32559.80954032619</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-32559.80954032619</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-32561.8453403262</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-32561.8453403262</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-32561.8453403262</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-32561.8453403262</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-32562.8453403262</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-33063.8453403262</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-40471.8453403262</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-40432.2453403262</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-40410.8913403262</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-40685.8913403262</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-40969.5020403262</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-39083.7782403262</v>
       </c>
       <c r="H418">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-39358.7782403262</v>
       </c>
       <c r="H419">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-38529.3426403262</v>
       </c>
       <c r="H420">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-38784.9474403262</v>
       </c>
       <c r="H421">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-38784.9474403262</v>
       </c>
       <c r="H422">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-38473.1474403262</v>
       </c>
       <c r="H423">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-39234.77714032619</v>
       </c>
       <c r="H424">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-37809.2485403262</v>
       </c>
       <c r="H425">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-37809.2485403262</v>
       </c>
       <c r="H426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-35738.0485403262</v>
       </c>
       <c r="H427">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-35739.2673403262</v>
       </c>
       <c r="H428">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-35656.7517403262</v>
       </c>
       <c r="H429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-35656.7517403262</v>
       </c>
       <c r="H430">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-35656.7517403262</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-34291.9637403262</v>
       </c>
       <c r="H432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-34264.9637403262</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-34223.8337403262</v>
       </c>
       <c r="H434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-19 OMG ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-19 OMG ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-4652.129</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-4616.3489</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-4732.0401</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-1702.1481</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-1700.5904</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-1900.6062</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>937.4353999999998</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-378.9957000000002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-378.9957000000002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-377.9957000000002</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-405.5108000000002</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-404.5108000000002</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-157.1468000000002</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-226.5625000000002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>1318.9594</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>1322.9594</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>1323.9594</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-2271.407</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-2270.407</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>522.607</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>547.607</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-3626.4972</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-3623.9972</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-4096.9073</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-7366.5044</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-7305.5044</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-7309.263</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-7341.1977</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-7247.6977</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-7147.94704736842</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-7219.94704736842</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-7200.789847368421</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-7138.673047368421</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-7141.594447368421</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-12589.17814736842</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-12589.17814736842</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-13132.15814736842</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-9944.967947368423</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-6896.467947368423</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-6896.467947368423</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-15093.75534736842</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-15569.64054736842</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-15125.37984736842</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-16194.67474736842</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-16231.47474736842</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-16192.95504736842</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-16146.65514736842</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-16150.74154736842</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-13447.43508765046</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-14532.02448765046</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-13324.09558765046</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-12031.03398765046</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-10894.86798765046</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-11039.27768765046</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-11082.20058765046</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-16513.34418765046</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-15716.28658765046</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-14495.09448376218</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-15392.79378376218</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-16528.95978376218</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-16228.95978376218</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-16589.95978376218</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-16152.67838376218</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-16978.58838376218</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-16975.29788376218</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-18154.29788376218</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-18754.29788376218</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-20249.98788376218</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-20549.98788376218</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-22723.95608376218</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-13716.16648376218</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-19445.84347855176</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-18283.25687855176</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-18283.25687855176</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-14133.44227855176</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-14133.44227855176</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-14133.44227855176</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-13416.89767855176</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-12964.39377855176</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-12964.39377855176</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-10371.76679944729</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-10371.76679944729</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-16076.80519944729</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-16033.60519944729</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-15238.15819944729</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-17608.31209984372</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>-20738.42099984372</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>-20823.96259984372</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-20823.96259984372</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-22036.64139984372</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-23692.12719984372</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-15100.85589984372</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-13451.57539984372</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-14482.24289984372</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-16812.24909984372</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-21223.30189984372</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-21258.51832094825</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-17186.87792094825</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-17649.42862094825</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-17649.42862094825</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-18776.49672094825</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-18784.59672094825</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-19145.76382094825</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-19135.21542094825</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-35656.5256403262</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-34848.5256403262</v>
       </c>
       <c r="H279">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-34848.5256403262</v>
       </c>
       <c r="H280">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-34420.0135403262</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-35151.7292403262</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-35154.6316403262</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-35154.6316403262</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-35150.5919403262</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-35148.7565403262</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-35268.87964032619</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-35477.87964032619</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-35478.87964032619</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-35479.87964032619</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-35357.7222403262</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-35357.7222403262</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-35414.7222403262</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-35764.8443403262</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-36742.7367403262</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-36910.9304403262</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-39396.5240403262</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-39396.5240403262</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-6871.296540326198</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-6663.306640326198</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-6663.306640326198</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-9120.961840326199</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-4490.444340326199</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-5080.868740326199</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-6871.321640326199</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-9114.058540326199</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-5502.725040326199</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-6531.053740326199</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-11693.5653403262</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-11651.9237403262</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-12803.2600403262</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-10278.0509403262</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-30144.53674032619</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-28890.53674032619</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-28565.45164032619</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-28565.45164032619</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-28558.65164032619</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-28511.21454032619</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-28511.21454032619</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-28623.05804032619</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-40432.2453403262</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-40410.8913403262</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-40685.8913403262</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-40642.2513403262</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-40969.5020403262</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-39085.7634403262</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-39083.7782403262</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-39358.7782403262</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-38529.3426403262</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-38784.9474403262</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-38784.9474403262</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-38473.1474403262</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-39234.77714032619</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-37809.2485403262</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-37809.2485403262</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-35738.0485403262</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-35739.2673403262</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-35656.7517403262</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-35656.7517403262</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-35656.7517403262</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-34291.9637403262</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-34264.9637403262</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-34223.8337403262</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-33544.20754032621</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-34046.95144032621</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
